--- a/scripts/script_data/complete_MANUAL_LOOKUP_multiple_bibkeys_maybe_multiple_ss_ids.xlsx
+++ b/scripts/script_data/complete_MANUAL_LOOKUP_multiple_bibkeys_maybe_multiple_ss_ids.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://radboudumc-my.sharepoint.com/personal/marina_damato_radboudumc_nl/Documents/Microsoft Teams Chat Files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="13_ncr:1_{DCB8C953-C876-414B-B38A-56A009E1299D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECBDBCB9-73FA-407E-BE89-5974F0ED0ACD}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,28 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$103</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="653">
   <si>
     <t>ss_id</t>
   </si>
@@ -789,12 +767,6 @@
   </si>
   <si>
     <t>[1.0, 0.8108108108108109, 0.8448275862068966]</t>
-  </si>
-  <si>
-    <t>['True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False', 'True_or_False']</t>
-  </si>
-  <si>
-    <t>True_or_False</t>
   </si>
   <si>
     <t>PhD thesis</t>
@@ -2009,11 +1981,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2028,14 +2014,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2043,21 +2021,350 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2080,31 +2387,317 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2389,71 +2982,71 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.25" customWidth="1"/>
-    <col min="2" max="2" width="60.125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="56.5" customWidth="1"/>
+    <col min="1" max="1" width="45.247619047619" customWidth="1"/>
+    <col min="2" max="2" width="60.1238095238095" customWidth="1"/>
+    <col min="3" max="3" width="12.5047619047619" customWidth="1"/>
+    <col min="4" max="4" width="56.5047619047619" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="5.25" customWidth="1"/>
-    <col min="8" max="8" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="5.24761904761905" customWidth="1"/>
+    <col min="8" max="8" width="7.87619047619048" customWidth="1"/>
     <col min="9" max="9" width="54" customWidth="1"/>
-    <col min="10" max="10" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="103.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.8761904761905" customWidth="1"/>
+    <col min="11" max="11" width="103.504761904762" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="13.5">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2484,14 +3077,14 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="13.5">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2529,7 +3122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.5">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2567,7 +3160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="13.5">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -2605,7 +3198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="13.5">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2643,7 +3236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13.5">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2681,7 +3274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="13.5">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -2695,7 +3288,7 @@
         <v>55</v>
       </c>
       <c r="E8">
-        <v>0.96551724137931005</v>
+        <v>0.96551724137931</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -2719,7 +3312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="13.5">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -2733,7 +3326,7 @@
         <v>64</v>
       </c>
       <c r="E9">
-        <v>0.96610169491525399</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -2757,7 +3350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.5">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -2771,7 +3364,7 @@
         <v>70</v>
       </c>
       <c r="E10">
-        <v>0.96296296296296302</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="F10" t="s">
         <v>71</v>
@@ -2795,7 +3388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.5">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -2833,7 +3426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.5">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -2871,7 +3464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.5">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -2909,7 +3502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.5">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -2947,7 +3540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.5">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -2961,7 +3554,7 @@
         <v>106</v>
       </c>
       <c r="E15">
-        <v>0.88082901554404103</v>
+        <v>0.880829015544041</v>
       </c>
       <c r="F15" t="s">
         <v>107</v>
@@ -2985,7 +3578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.5">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -3023,7 +3616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.5">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -3061,7 +3654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.5">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -3099,7 +3692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.5">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>123</v>
       </c>
@@ -3137,7 +3730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.5">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -3151,7 +3744,7 @@
         <v>132</v>
       </c>
       <c r="E20">
-        <v>0.99616858237547901</v>
+        <v>0.996168582375479</v>
       </c>
       <c r="F20" t="s">
         <v>133</v>
@@ -3175,7 +3768,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.5">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -3213,7 +3806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.5">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>145</v>
       </c>
@@ -3227,7 +3820,7 @@
         <v>148</v>
       </c>
       <c r="E22">
-        <v>0.99145299145299204</v>
+        <v>0.991452991452992</v>
       </c>
       <c r="F22" t="s">
         <v>149</v>
@@ -3251,7 +3844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.5">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>153</v>
       </c>
@@ -3265,7 +3858,7 @@
         <v>148</v>
       </c>
       <c r="E23">
-        <v>0.99145299145299204</v>
+        <v>0.991452991452992</v>
       </c>
       <c r="F23" t="s">
         <v>149</v>
@@ -3289,7 +3882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.5">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>155</v>
       </c>
@@ -3327,7 +3920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.5">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>157</v>
       </c>
@@ -3365,7 +3958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.5">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>163</v>
       </c>
@@ -3403,7 +3996,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.5">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>170</v>
       </c>
@@ -3441,7 +4034,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.5">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>175</v>
       </c>
@@ -3455,7 +4048,7 @@
         <v>178</v>
       </c>
       <c r="E28">
-        <v>0.99186991869918695</v>
+        <v>0.991869918699187</v>
       </c>
       <c r="F28" t="s">
         <v>166</v>
@@ -3479,7 +4072,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.5">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>180</v>
       </c>
@@ -3517,7 +4110,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.5">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -3555,7 +4148,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.5">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>193</v>
       </c>
@@ -3593,7 +4186,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="13.5">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>202</v>
       </c>
@@ -3607,7 +4200,7 @@
         <v>205</v>
       </c>
       <c r="E32">
-        <v>0.99447513812154698</v>
+        <v>0.994475138121547</v>
       </c>
       <c r="F32" t="s">
         <v>196</v>
@@ -3631,7 +4224,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="13.5">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>207</v>
       </c>
@@ -3669,7 +4262,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="13.5">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>213</v>
       </c>
@@ -3707,7 +4300,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="13.5">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>218</v>
       </c>
@@ -3721,7 +4314,7 @@
         <v>221</v>
       </c>
       <c r="E35">
-        <v>0.99567099567099604</v>
+        <v>0.995670995670996</v>
       </c>
       <c r="F35" t="s">
         <v>222</v>
@@ -3742,7 +4335,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="13.5">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>225</v>
       </c>
@@ -3756,7 +4349,7 @@
         <v>228</v>
       </c>
       <c r="E36">
-        <v>0.96062992125984203</v>
+        <v>0.960629921259842</v>
       </c>
       <c r="F36" t="s">
         <v>229</v>
@@ -3780,7 +4373,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="13.5">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>232</v>
       </c>
@@ -3818,7 +4411,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="13.5">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>238</v>
       </c>
@@ -3856,68 +4449,68 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="4" customFormat="1" ht="13.5">
-      <c r="A39" s="4" t="s">
+    <row r="39" s="1" customFormat="1" spans="1:12">
+      <c r="A39" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="L39" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
         <v>251</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="B40" t="s">
         <v>252</v>
       </c>
-      <c r="L39" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="13.5">
-      <c r="A40" t="s">
+      <c r="C40" t="s">
         <v>253</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>254</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40">
+        <v>0.989473684210526</v>
+      </c>
+      <c r="F40" t="s">
         <v>255</v>
       </c>
-      <c r="D40" t="s">
+      <c r="G40" t="s">
         <v>256</v>
       </c>
-      <c r="E40">
-        <v>0.98947368421052595</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>257</v>
-      </c>
-      <c r="G40" t="s">
-        <v>258</v>
-      </c>
-      <c r="H40" t="s">
-        <v>259</v>
       </c>
       <c r="I40" t="s">
         <v>28</v>
@@ -3926,36 +4519,36 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L40" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="13.5">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" t="s">
         <v>261</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>262</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
         <v>263</v>
       </c>
-      <c r="D41" t="s">
+      <c r="G41" t="s">
         <v>264</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
         <v>265</v>
-      </c>
-      <c r="G41" t="s">
-        <v>266</v>
-      </c>
-      <c r="H41" t="s">
-        <v>267</v>
       </c>
       <c r="I41" t="s">
         <v>82</v>
@@ -3970,30 +4563,30 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="13.5">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
+        <v>266</v>
+      </c>
+      <c r="B42" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" t="s">
         <v>268</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
         <v>269</v>
-      </c>
-      <c r="C42" t="s">
-        <v>270</v>
-      </c>
-      <c r="D42" t="s">
-        <v>271</v>
       </c>
       <c r="E42">
         <v>0.840425531914894</v>
       </c>
       <c r="F42" t="s">
+        <v>270</v>
+      </c>
+      <c r="G42" t="s">
+        <v>271</v>
+      </c>
+      <c r="H42" t="s">
         <v>272</v>
-      </c>
-      <c r="G42" t="s">
-        <v>273</v>
-      </c>
-      <c r="H42" t="s">
-        <v>274</v>
       </c>
       <c r="I42" t="s">
         <v>19</v>
@@ -4008,30 +4601,30 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="13.5">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
+        <v>273</v>
+      </c>
+      <c r="B43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" t="s">
         <v>275</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>276</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43">
+        <v>0.99290780141844</v>
+      </c>
+      <c r="F43" t="s">
         <v>277</v>
       </c>
-      <c r="D43" t="s">
+      <c r="G43" t="s">
         <v>278</v>
       </c>
-      <c r="E43">
-        <v>0.99290780141844004</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
         <v>279</v>
-      </c>
-      <c r="G43" t="s">
-        <v>280</v>
-      </c>
-      <c r="H43" t="s">
-        <v>281</v>
       </c>
       <c r="I43" t="s">
         <v>82</v>
@@ -4046,30 +4639,30 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="13.5">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
+        <v>280</v>
+      </c>
+      <c r="B44" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" t="s">
         <v>282</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
         <v>283</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>277</v>
+      </c>
+      <c r="G44" t="s">
+        <v>278</v>
+      </c>
+      <c r="H44" t="s">
         <v>284</v>
-      </c>
-      <c r="D44" t="s">
-        <v>285</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
-        <v>279</v>
-      </c>
-      <c r="G44" t="s">
-        <v>280</v>
-      </c>
-      <c r="H44" t="s">
-        <v>286</v>
       </c>
       <c r="I44" t="s">
         <v>19</v>
@@ -4084,30 +4677,30 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="13.5">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
+        <v>285</v>
+      </c>
+      <c r="B45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C45" t="s">
         <v>287</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>288</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
         <v>289</v>
       </c>
-      <c r="D45" t="s">
+      <c r="G45" t="s">
         <v>290</v>
       </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
         <v>291</v>
-      </c>
-      <c r="G45" t="s">
-        <v>292</v>
-      </c>
-      <c r="H45" t="s">
-        <v>293</v>
       </c>
       <c r="I45" t="s">
         <v>174</v>
@@ -4122,68 +4715,68 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="4" customFormat="1" ht="13.5">
-      <c r="A46" s="4" t="s">
+    <row r="46" s="1" customFormat="1" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="D46" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="G46" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="H46" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>299</v>
+      </c>
+      <c r="B47" t="s">
+        <v>300</v>
+      </c>
+      <c r="C47" t="s">
+        <v>301</v>
+      </c>
+      <c r="D47" t="s">
+        <v>300</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
         <v>295</v>
       </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="J46" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="13.5">
-      <c r="A47" t="s">
-        <v>301</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="G47" t="s">
+        <v>296</v>
+      </c>
+      <c r="H47" t="s">
         <v>302</v>
-      </c>
-      <c r="C47" t="s">
-        <v>303</v>
-      </c>
-      <c r="D47" t="s">
-        <v>302</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>297</v>
-      </c>
-      <c r="G47" t="s">
-        <v>298</v>
-      </c>
-      <c r="H47" t="s">
-        <v>304</v>
       </c>
       <c r="I47" t="s">
         <v>19</v>
@@ -4198,30 +4791,30 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="13.5">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
+        <v>303</v>
+      </c>
+      <c r="B48" t="s">
+        <v>304</v>
+      </c>
+      <c r="C48" t="s">
         <v>305</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>306</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48">
+        <v>0.992700729927007</v>
+      </c>
+      <c r="F48" t="s">
         <v>307</v>
       </c>
-      <c r="D48" t="s">
+      <c r="G48" t="s">
         <v>308</v>
       </c>
-      <c r="E48">
-        <v>0.99270072992700698</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>309</v>
-      </c>
-      <c r="G48" t="s">
-        <v>310</v>
-      </c>
-      <c r="H48" t="s">
-        <v>311</v>
       </c>
       <c r="I48" t="s">
         <v>82</v>
@@ -4236,27 +4829,27 @@
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="13.5">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
+        <v>310</v>
+      </c>
+      <c r="B49" t="s">
+        <v>311</v>
+      </c>
+      <c r="C49" t="s">
         <v>312</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
+        <v>311</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
         <v>313</v>
       </c>
-      <c r="C49" t="s">
+      <c r="G49" t="s">
         <v>314</v>
-      </c>
-      <c r="D49" t="s">
-        <v>313</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>315</v>
-      </c>
-      <c r="G49" t="s">
-        <v>316</v>
       </c>
       <c r="H49" t="s">
         <v>27</v>
@@ -4268,33 +4861,33 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L49" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="13.5">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s">
+        <v>311</v>
+      </c>
+      <c r="C50" t="s">
+        <v>312</v>
+      </c>
+      <c r="D50" t="s">
+        <v>311</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
         <v>313</v>
       </c>
-      <c r="C50" t="s">
+      <c r="G50" t="s">
         <v>314</v>
-      </c>
-      <c r="D50" t="s">
-        <v>313</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>315</v>
-      </c>
-      <c r="G50" t="s">
-        <v>316</v>
       </c>
       <c r="H50" t="s">
         <v>27</v>
@@ -4306,33 +4899,33 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="13.5">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
+        <v>317</v>
+      </c>
+      <c r="B51" t="s">
+        <v>318</v>
+      </c>
+      <c r="C51" t="s">
         <v>319</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
+        <v>318</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
         <v>320</v>
       </c>
-      <c r="C51" t="s">
+      <c r="G51" t="s">
         <v>321</v>
-      </c>
-      <c r="D51" t="s">
-        <v>320</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
-        <v>322</v>
-      </c>
-      <c r="G51" t="s">
-        <v>323</v>
       </c>
       <c r="H51" t="s">
         <v>27</v>
@@ -4350,30 +4943,30 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="13.5">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B52" t="s">
+        <v>323</v>
+      </c>
+      <c r="C52" t="s">
         <v>324</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
+        <v>323</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
         <v>325</v>
       </c>
-      <c r="C52" t="s">
+      <c r="G52" t="s">
         <v>326</v>
       </c>
-      <c r="D52" t="s">
-        <v>325</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
         <v>327</v>
-      </c>
-      <c r="G52" t="s">
-        <v>328</v>
-      </c>
-      <c r="H52" t="s">
-        <v>329</v>
       </c>
       <c r="I52" t="s">
         <v>82</v>
@@ -4382,36 +4975,36 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
+        <v>328</v>
+      </c>
+      <c r="L52" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
         <v>330</v>
       </c>
-      <c r="L52" t="s">
+      <c r="B53" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="13.5">
-      <c r="A53" t="s">
+      <c r="C53" t="s">
         <v>332</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
+        <v>331</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
         <v>333</v>
       </c>
-      <c r="C53" t="s">
+      <c r="G53" t="s">
         <v>334</v>
       </c>
-      <c r="D53" t="s">
-        <v>333</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
         <v>335</v>
-      </c>
-      <c r="G53" t="s">
-        <v>336</v>
-      </c>
-      <c r="H53" t="s">
-        <v>337</v>
       </c>
       <c r="I53" t="s">
         <v>82</v>
@@ -4420,36 +5013,36 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
+        <v>336</v>
+      </c>
+      <c r="L53" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>337</v>
+      </c>
+      <c r="B54" t="s">
         <v>338</v>
       </c>
-      <c r="L53" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="13.5">
-      <c r="A54" t="s">
+      <c r="C54" t="s">
         <v>339</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>340</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>325</v>
+      </c>
+      <c r="G54" t="s">
+        <v>326</v>
+      </c>
+      <c r="H54" t="s">
         <v>341</v>
-      </c>
-      <c r="D54" t="s">
-        <v>342</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
-        <v>327</v>
-      </c>
-      <c r="G54" t="s">
-        <v>328</v>
-      </c>
-      <c r="H54" t="s">
-        <v>343</v>
       </c>
       <c r="I54" t="s">
         <v>19</v>
@@ -4461,33 +5054,33 @@
         <v>75</v>
       </c>
       <c r="L54" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="13.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
+        <v>342</v>
+      </c>
+      <c r="B55" t="s">
+        <v>343</v>
+      </c>
+      <c r="C55" t="s">
         <v>344</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>345</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>333</v>
+      </c>
+      <c r="G55" t="s">
+        <v>334</v>
+      </c>
+      <c r="H55" t="s">
         <v>346</v>
-      </c>
-      <c r="D55" t="s">
-        <v>347</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
-        <v>335</v>
-      </c>
-      <c r="G55" t="s">
-        <v>336</v>
-      </c>
-      <c r="H55" t="s">
-        <v>348</v>
       </c>
       <c r="I55" t="s">
         <v>19</v>
@@ -4496,36 +5089,36 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
+        <v>347</v>
+      </c>
+      <c r="L55" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>348</v>
+      </c>
+      <c r="B56" t="s">
         <v>349</v>
       </c>
-      <c r="L55" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="13.5">
-      <c r="A56" t="s">
+      <c r="C56" t="s">
         <v>350</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
+        <v>349</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
         <v>351</v>
       </c>
-      <c r="C56" t="s">
+      <c r="G56" t="s">
         <v>352</v>
       </c>
-      <c r="D56" t="s">
-        <v>351</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
         <v>353</v>
-      </c>
-      <c r="G56" t="s">
-        <v>354</v>
-      </c>
-      <c r="H56" t="s">
-        <v>355</v>
       </c>
       <c r="I56" t="s">
         <v>28</v>
@@ -4534,36 +5127,36 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
+        <v>354</v>
+      </c>
+      <c r="L56" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>355</v>
+      </c>
+      <c r="B57" t="s">
         <v>356</v>
       </c>
-      <c r="L56" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="13.5">
-      <c r="A57" t="s">
+      <c r="C57" t="s">
         <v>357</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>358</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57">
+        <v>0.993103448275862</v>
+      </c>
+      <c r="F57" t="s">
         <v>359</v>
       </c>
-      <c r="D57" t="s">
+      <c r="G57" t="s">
         <v>360</v>
       </c>
-      <c r="E57">
-        <v>0.99310344827586206</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="H57" t="s">
         <v>361</v>
-      </c>
-      <c r="G57" t="s">
-        <v>362</v>
-      </c>
-      <c r="H57" t="s">
-        <v>363</v>
       </c>
       <c r="I57" t="s">
         <v>19</v>
@@ -4575,30 +5168,30 @@
         <v>75</v>
       </c>
       <c r="L57" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="13.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
+        <v>362</v>
+      </c>
+      <c r="B58" t="s">
+        <v>363</v>
+      </c>
+      <c r="C58" t="s">
         <v>364</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
+        <v>363</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
         <v>365</v>
       </c>
-      <c r="C58" t="s">
+      <c r="G58" t="s">
         <v>366</v>
-      </c>
-      <c r="D58" t="s">
-        <v>365</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>367</v>
-      </c>
-      <c r="G58" t="s">
-        <v>368</v>
       </c>
       <c r="H58" t="s">
         <v>27</v>
@@ -4610,36 +5203,36 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
+        <v>367</v>
+      </c>
+      <c r="L58" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>368</v>
+      </c>
+      <c r="B59" t="s">
         <v>369</v>
       </c>
-      <c r="L58" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="13.5">
-      <c r="A59" t="s">
+      <c r="C59" t="s">
         <v>370</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>371</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
         <v>372</v>
       </c>
-      <c r="D59" t="s">
+      <c r="G59" t="s">
         <v>373</v>
       </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="H59" t="s">
         <v>374</v>
-      </c>
-      <c r="G59" t="s">
-        <v>375</v>
-      </c>
-      <c r="H59" t="s">
-        <v>376</v>
       </c>
       <c r="I59" t="s">
         <v>82</v>
@@ -4648,36 +5241,36 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
+        <v>375</v>
+      </c>
+      <c r="L59" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>376</v>
+      </c>
+      <c r="B60" t="s">
         <v>377</v>
       </c>
-      <c r="L59" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="13.5">
-      <c r="A60" t="s">
+      <c r="C60" t="s">
         <v>378</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60" t="s">
         <v>379</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
         <v>380</v>
       </c>
-      <c r="D60" t="s">
+      <c r="G60" t="s">
         <v>381</v>
       </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>382</v>
-      </c>
-      <c r="G60" t="s">
-        <v>383</v>
-      </c>
-      <c r="H60" t="s">
-        <v>384</v>
       </c>
       <c r="I60" t="s">
         <v>19</v>
@@ -4686,36 +5279,36 @@
         <v>0</v>
       </c>
       <c r="K60" t="s">
+        <v>383</v>
+      </c>
+      <c r="L60" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>384</v>
+      </c>
+      <c r="B61" t="s">
         <v>385</v>
       </c>
-      <c r="L60" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="13.5">
-      <c r="A61" t="s">
+      <c r="C61" t="s">
         <v>386</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D61" t="s">
         <v>387</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61">
+        <v>0.939759036144578</v>
+      </c>
+      <c r="F61" t="s">
         <v>388</v>
       </c>
-      <c r="D61" t="s">
+      <c r="G61" t="s">
         <v>389</v>
       </c>
-      <c r="E61">
-        <v>0.93975903614457801</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="H61" t="s">
         <v>390</v>
-      </c>
-      <c r="G61" t="s">
-        <v>391</v>
-      </c>
-      <c r="H61" t="s">
-        <v>392</v>
       </c>
       <c r="I61" t="s">
         <v>82</v>
@@ -4727,33 +5320,33 @@
         <v>75</v>
       </c>
       <c r="L61" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="13.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
+        <v>391</v>
+      </c>
+      <c r="B62" t="s">
+        <v>392</v>
+      </c>
+      <c r="C62" t="s">
         <v>393</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D62" t="s">
         <v>394</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>388</v>
+      </c>
+      <c r="G62" t="s">
+        <v>389</v>
+      </c>
+      <c r="H62" t="s">
         <v>395</v>
-      </c>
-      <c r="D62" t="s">
-        <v>396</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>390</v>
-      </c>
-      <c r="G62" t="s">
-        <v>391</v>
-      </c>
-      <c r="H62" t="s">
-        <v>397</v>
       </c>
       <c r="I62" t="s">
         <v>19</v>
@@ -4765,33 +5358,33 @@
         <v>75</v>
       </c>
       <c r="L62" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="13.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
+        <v>396</v>
+      </c>
+      <c r="B63" t="s">
+        <v>397</v>
+      </c>
+      <c r="C63" t="s">
         <v>398</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
+        <v>397</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
         <v>399</v>
       </c>
-      <c r="C63" t="s">
+      <c r="G63" t="s">
         <v>400</v>
       </c>
-      <c r="D63" t="s">
-        <v>399</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="H63" t="s">
         <v>401</v>
-      </c>
-      <c r="G63" t="s">
-        <v>402</v>
-      </c>
-      <c r="H63" t="s">
-        <v>403</v>
       </c>
       <c r="I63" t="s">
         <v>82</v>
@@ -4803,33 +5396,33 @@
         <v>75</v>
       </c>
       <c r="L63" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="13.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
+        <v>402</v>
+      </c>
+      <c r="B64" t="s">
+        <v>403</v>
+      </c>
+      <c r="C64" t="s">
         <v>404</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
         <v>405</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
         <v>406</v>
       </c>
-      <c r="D64" t="s">
+      <c r="G64" t="s">
         <v>407</v>
       </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>408</v>
-      </c>
-      <c r="G64" t="s">
-        <v>409</v>
-      </c>
-      <c r="H64" t="s">
-        <v>410</v>
       </c>
       <c r="I64" t="s">
         <v>82</v>
@@ -4841,33 +5434,33 @@
         <v>75</v>
       </c>
       <c r="L64" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="13.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
+        <v>409</v>
+      </c>
+      <c r="B65" t="s">
+        <v>410</v>
+      </c>
+      <c r="C65" t="s">
         <v>411</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
+        <v>410</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
         <v>412</v>
       </c>
-      <c r="C65" t="s">
+      <c r="G65" t="s">
         <v>413</v>
       </c>
-      <c r="D65" t="s">
-        <v>412</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="H65" t="s">
         <v>414</v>
-      </c>
-      <c r="G65" t="s">
-        <v>415</v>
-      </c>
-      <c r="H65" t="s">
-        <v>416</v>
       </c>
       <c r="I65" t="s">
         <v>19</v>
@@ -4876,36 +5469,36 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
+        <v>415</v>
+      </c>
+      <c r="L65" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>416</v>
+      </c>
+      <c r="B66" t="s">
         <v>417</v>
       </c>
-      <c r="L65" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="13.5">
-      <c r="A66" t="s">
+      <c r="C66" t="s">
         <v>418</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
+        <v>417</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>406</v>
+      </c>
+      <c r="G66" t="s">
+        <v>407</v>
+      </c>
+      <c r="H66" t="s">
         <v>419</v>
-      </c>
-      <c r="C66" t="s">
-        <v>420</v>
-      </c>
-      <c r="D66" t="s">
-        <v>419</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" t="s">
-        <v>408</v>
-      </c>
-      <c r="G66" t="s">
-        <v>409</v>
-      </c>
-      <c r="H66" t="s">
-        <v>421</v>
       </c>
       <c r="I66" t="s">
         <v>19</v>
@@ -4914,36 +5507,36 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
+        <v>420</v>
+      </c>
+      <c r="L66" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>421</v>
+      </c>
+      <c r="B67" t="s">
         <v>422</v>
       </c>
-      <c r="L66" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="13.5">
-      <c r="A67" t="s">
+      <c r="C67" t="s">
         <v>423</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
+        <v>422</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>399</v>
+      </c>
+      <c r="G67" t="s">
+        <v>400</v>
+      </c>
+      <c r="H67" t="s">
         <v>424</v>
-      </c>
-      <c r="C67" t="s">
-        <v>425</v>
-      </c>
-      <c r="D67" t="s">
-        <v>424</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" t="s">
-        <v>401</v>
-      </c>
-      <c r="G67" t="s">
-        <v>402</v>
-      </c>
-      <c r="H67" t="s">
-        <v>426</v>
       </c>
       <c r="I67" t="s">
         <v>19</v>
@@ -4955,21 +5548,21 @@
         <v>75</v>
       </c>
       <c r="L67" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="13.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
+        <v>425</v>
+      </c>
+      <c r="B68" t="s">
+        <v>426</v>
+      </c>
+      <c r="C68" t="s">
         <v>427</v>
       </c>
-      <c r="B68" t="s">
-        <v>428</v>
-      </c>
-      <c r="C68" t="s">
-        <v>429</v>
-      </c>
       <c r="D68" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4981,7 +5574,7 @@
         <v>242</v>
       </c>
       <c r="H68" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I68" t="s">
         <v>19</v>
@@ -4990,36 +5583,36 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
+        <v>429</v>
+      </c>
+      <c r="L68" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>430</v>
+      </c>
+      <c r="B69" t="s">
         <v>431</v>
       </c>
-      <c r="L68" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="13.5">
-      <c r="A69" t="s">
+      <c r="C69" t="s">
         <v>432</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" t="s">
+        <v>431</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
         <v>433</v>
       </c>
-      <c r="C69" t="s">
+      <c r="G69" t="s">
         <v>434</v>
       </c>
-      <c r="D69" t="s">
-        <v>433</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="H69" t="s">
         <v>435</v>
-      </c>
-      <c r="G69" t="s">
-        <v>436</v>
-      </c>
-      <c r="H69" t="s">
-        <v>437</v>
       </c>
       <c r="I69" t="s">
         <v>19</v>
@@ -5031,30 +5624,30 @@
         <v>75</v>
       </c>
       <c r="L69" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="13.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
+        <v>436</v>
+      </c>
+      <c r="B70" t="s">
+        <v>437</v>
+      </c>
+      <c r="C70" t="s">
         <v>438</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" t="s">
+        <v>437</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
         <v>439</v>
       </c>
-      <c r="C70" t="s">
+      <c r="G70" t="s">
         <v>440</v>
-      </c>
-      <c r="D70" t="s">
-        <v>439</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
-        <v>441</v>
-      </c>
-      <c r="G70" t="s">
-        <v>442</v>
       </c>
       <c r="H70" t="s">
         <v>27</v>
@@ -5066,36 +5659,36 @@
         <v>0</v>
       </c>
       <c r="K70" t="s">
+        <v>441</v>
+      </c>
+      <c r="L70" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>442</v>
+      </c>
+      <c r="B71" t="s">
         <v>443</v>
       </c>
-      <c r="L70" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="13.5">
-      <c r="A71" t="s">
+      <c r="C71" t="s">
         <v>444</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
+        <v>443</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
         <v>445</v>
       </c>
-      <c r="C71" t="s">
+      <c r="G71" t="s">
         <v>446</v>
       </c>
-      <c r="D71" t="s">
-        <v>445</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="H71" t="s">
         <v>447</v>
-      </c>
-      <c r="G71" t="s">
-        <v>448</v>
-      </c>
-      <c r="H71" t="s">
-        <v>449</v>
       </c>
       <c r="I71" t="s">
         <v>82</v>
@@ -5107,33 +5700,33 @@
         <v>75</v>
       </c>
       <c r="L71" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="13.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
+        <v>448</v>
+      </c>
+      <c r="B72" t="s">
+        <v>449</v>
+      </c>
+      <c r="C72" t="s">
         <v>450</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" t="s">
         <v>451</v>
       </c>
-      <c r="C72" t="s">
+      <c r="E72">
+        <v>0.986301369863014</v>
+      </c>
+      <c r="F72" t="s">
         <v>452</v>
       </c>
-      <c r="D72" t="s">
+      <c r="G72" t="s">
         <v>453</v>
       </c>
-      <c r="E72">
-        <v>0.98630136986301398</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="H72" t="s">
         <v>454</v>
-      </c>
-      <c r="G72" t="s">
-        <v>455</v>
-      </c>
-      <c r="H72" t="s">
-        <v>456</v>
       </c>
       <c r="I72" t="s">
         <v>82</v>
@@ -5145,33 +5738,33 @@
         <v>75</v>
       </c>
       <c r="L72" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="13.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
+        <v>455</v>
+      </c>
+      <c r="B73" t="s">
+        <v>456</v>
+      </c>
+      <c r="C73" t="s">
         <v>457</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
+        <v>456</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
         <v>458</v>
       </c>
-      <c r="C73" t="s">
+      <c r="G73" t="s">
         <v>459</v>
       </c>
-      <c r="D73" t="s">
-        <v>458</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="H73" t="s">
         <v>460</v>
-      </c>
-      <c r="G73" t="s">
-        <v>461</v>
-      </c>
-      <c r="H73" t="s">
-        <v>462</v>
       </c>
       <c r="I73" t="s">
         <v>82</v>
@@ -5183,33 +5776,33 @@
         <v>75</v>
       </c>
       <c r="L73" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="13.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
+        <v>461</v>
+      </c>
+      <c r="B74" t="s">
+        <v>462</v>
+      </c>
+      <c r="C74" t="s">
         <v>463</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
+        <v>462</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>458</v>
+      </c>
+      <c r="G74" t="s">
+        <v>459</v>
+      </c>
+      <c r="H74" t="s">
         <v>464</v>
-      </c>
-      <c r="C74" t="s">
-        <v>465</v>
-      </c>
-      <c r="D74" t="s">
-        <v>464</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74" t="s">
-        <v>460</v>
-      </c>
-      <c r="G74" t="s">
-        <v>461</v>
-      </c>
-      <c r="H74" t="s">
-        <v>466</v>
       </c>
       <c r="I74" t="s">
         <v>19</v>
@@ -5221,33 +5814,33 @@
         <v>75</v>
       </c>
       <c r="L74" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="13.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
+        <v>465</v>
+      </c>
+      <c r="B75" t="s">
+        <v>466</v>
+      </c>
+      <c r="C75" t="s">
         <v>467</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" t="s">
         <v>468</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75">
+        <v>0.995260663507109</v>
+      </c>
+      <c r="F75" t="s">
         <v>469</v>
       </c>
-      <c r="D75" t="s">
+      <c r="G75" t="s">
         <v>470</v>
       </c>
-      <c r="E75">
-        <v>0.99526066350710896</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="H75" t="s">
         <v>471</v>
-      </c>
-      <c r="G75" t="s">
-        <v>472</v>
-      </c>
-      <c r="H75" t="s">
-        <v>473</v>
       </c>
       <c r="I75" t="s">
         <v>19</v>
@@ -5259,33 +5852,33 @@
         <v>75</v>
       </c>
       <c r="L75" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="13.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B76" t="s">
+        <v>466</v>
+      </c>
+      <c r="C76" t="s">
+        <v>467</v>
+      </c>
+      <c r="D76" t="s">
         <v>468</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76">
+        <v>0.995260663507109</v>
+      </c>
+      <c r="F76" t="s">
         <v>469</v>
       </c>
-      <c r="D76" t="s">
+      <c r="G76" t="s">
         <v>470</v>
       </c>
-      <c r="E76">
-        <v>0.99526066350710896</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="H76" t="s">
         <v>471</v>
-      </c>
-      <c r="G76" t="s">
-        <v>472</v>
-      </c>
-      <c r="H76" t="s">
-        <v>473</v>
       </c>
       <c r="I76" t="s">
         <v>19</v>
@@ -5297,30 +5890,30 @@
         <v>75</v>
       </c>
       <c r="L76" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="13.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
+        <v>473</v>
+      </c>
+      <c r="B77" t="s">
+        <v>474</v>
+      </c>
+      <c r="C77" t="s">
         <v>475</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
+        <v>474</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
         <v>476</v>
       </c>
-      <c r="C77" t="s">
+      <c r="G77" t="s">
         <v>477</v>
-      </c>
-      <c r="D77" t="s">
-        <v>476</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77" t="s">
-        <v>478</v>
-      </c>
-      <c r="G77" t="s">
-        <v>479</v>
       </c>
       <c r="H77" t="s">
         <v>27</v>
@@ -5332,36 +5925,36 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
+        <v>478</v>
+      </c>
+      <c r="L77" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>479</v>
+      </c>
+      <c r="B78" t="s">
         <v>480</v>
       </c>
-      <c r="L77" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="13.5">
-      <c r="A78" t="s">
+      <c r="C78" t="s">
         <v>481</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D78" t="s">
         <v>482</v>
       </c>
-      <c r="C78" t="s">
+      <c r="E78">
+        <v>0.944444444444444</v>
+      </c>
+      <c r="F78" t="s">
         <v>483</v>
       </c>
-      <c r="D78" t="s">
+      <c r="G78" t="s">
         <v>484</v>
       </c>
-      <c r="E78">
-        <v>0.94444444444444398</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="H78" t="s">
         <v>485</v>
-      </c>
-      <c r="G78" t="s">
-        <v>486</v>
-      </c>
-      <c r="H78" t="s">
-        <v>487</v>
       </c>
       <c r="I78" t="s">
         <v>82</v>
@@ -5370,33 +5963,33 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
+        <v>486</v>
+      </c>
+      <c r="L78" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" t="s">
+        <v>487</v>
+      </c>
+      <c r="B79" t="s">
         <v>488</v>
       </c>
-      <c r="L78" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="13.5">
-      <c r="A79" t="s">
+      <c r="C79" t="s">
         <v>489</v>
       </c>
-      <c r="B79" t="s">
+      <c r="D79" t="s">
+        <v>488</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
         <v>490</v>
       </c>
-      <c r="C79" t="s">
+      <c r="G79" t="s">
         <v>491</v>
-      </c>
-      <c r="D79" t="s">
-        <v>490</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79" t="s">
-        <v>492</v>
-      </c>
-      <c r="G79" t="s">
-        <v>493</v>
       </c>
       <c r="H79" t="s">
         <v>27</v>
@@ -5408,36 +6001,36 @@
         <v>0</v>
       </c>
       <c r="K79" t="s">
+        <v>492</v>
+      </c>
+      <c r="L79" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" t="s">
         <v>494</v>
       </c>
-      <c r="L79" t="s">
+      <c r="B80" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="13.5">
-      <c r="A80" t="s">
+      <c r="C80" t="s">
         <v>496</v>
       </c>
-      <c r="B80" t="s">
+      <c r="D80" t="s">
         <v>497</v>
       </c>
-      <c r="C80" t="s">
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
         <v>498</v>
       </c>
-      <c r="D80" t="s">
+      <c r="G80" t="s">
         <v>499</v>
       </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="H80" t="s">
         <v>500</v>
-      </c>
-      <c r="G80" t="s">
-        <v>501</v>
-      </c>
-      <c r="H80" t="s">
-        <v>502</v>
       </c>
       <c r="I80" t="s">
         <v>174</v>
@@ -5449,33 +6042,33 @@
         <v>75</v>
       </c>
       <c r="L80" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="13.5">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
+        <v>501</v>
+      </c>
+      <c r="B81" t="s">
+        <v>502</v>
+      </c>
+      <c r="C81" t="s">
         <v>503</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
         <v>504</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
         <v>505</v>
       </c>
-      <c r="D81" t="s">
+      <c r="G81" t="s">
         <v>506</v>
       </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
         <v>507</v>
-      </c>
-      <c r="G81" t="s">
-        <v>508</v>
-      </c>
-      <c r="H81" t="s">
-        <v>509</v>
       </c>
       <c r="I81" t="s">
         <v>19</v>
@@ -5484,36 +6077,36 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
+        <v>508</v>
+      </c>
+      <c r="L81" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" t="s">
+        <v>509</v>
+      </c>
+      <c r="B82" t="s">
         <v>510</v>
       </c>
-      <c r="L81" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="13.5">
-      <c r="A82" t="s">
+      <c r="C82" t="s">
         <v>511</v>
       </c>
-      <c r="B82" t="s">
+      <c r="D82" t="s">
+        <v>510</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
         <v>512</v>
       </c>
-      <c r="C82" t="s">
+      <c r="G82" t="s">
         <v>513</v>
       </c>
-      <c r="D82" t="s">
-        <v>512</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="H82" t="s">
         <v>514</v>
-      </c>
-      <c r="G82" t="s">
-        <v>515</v>
-      </c>
-      <c r="H82" t="s">
-        <v>516</v>
       </c>
       <c r="I82" t="s">
         <v>19</v>
@@ -5522,36 +6115,36 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
+        <v>515</v>
+      </c>
+      <c r="L82" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" t="s">
+        <v>516</v>
+      </c>
+      <c r="B83" t="s">
         <v>517</v>
       </c>
-      <c r="L82" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="13.5">
-      <c r="A83" t="s">
+      <c r="C83" t="s">
         <v>518</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D83" t="s">
+        <v>517</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
         <v>519</v>
       </c>
-      <c r="C83" t="s">
+      <c r="G83" t="s">
         <v>520</v>
       </c>
-      <c r="D83" t="s">
-        <v>519</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="H83" t="s">
         <v>521</v>
-      </c>
-      <c r="G83" t="s">
-        <v>522</v>
-      </c>
-      <c r="H83" t="s">
-        <v>523</v>
       </c>
       <c r="I83" t="s">
         <v>19</v>
@@ -5560,33 +6153,33 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
+        <v>522</v>
+      </c>
+      <c r="L83" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" t="s">
+        <v>523</v>
+      </c>
+      <c r="B84" t="s">
         <v>524</v>
       </c>
-      <c r="L83" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="13.5">
-      <c r="A84" t="s">
+      <c r="C84" t="s">
         <v>525</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84" t="s">
         <v>526</v>
       </c>
-      <c r="C84" t="s">
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
         <v>527</v>
       </c>
-      <c r="D84" t="s">
+      <c r="G84" t="s">
         <v>528</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84" t="s">
-        <v>529</v>
-      </c>
-      <c r="G84" t="s">
-        <v>530</v>
       </c>
       <c r="H84" t="s">
         <v>27</v>
@@ -5598,36 +6191,36 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
+        <v>529</v>
+      </c>
+      <c r="L84" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" t="s">
+        <v>530</v>
+      </c>
+      <c r="B85" t="s">
         <v>531</v>
       </c>
-      <c r="L84" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="13.5">
-      <c r="A85" t="s">
+      <c r="C85" t="s">
         <v>532</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D85" t="s">
         <v>533</v>
       </c>
-      <c r="C85" t="s">
+      <c r="E85">
+        <v>0.985074626865672</v>
+      </c>
+      <c r="F85" t="s">
+        <v>307</v>
+      </c>
+      <c r="G85" t="s">
+        <v>308</v>
+      </c>
+      <c r="H85" t="s">
         <v>534</v>
-      </c>
-      <c r="D85" t="s">
-        <v>535</v>
-      </c>
-      <c r="E85">
-        <v>0.98507462686567204</v>
-      </c>
-      <c r="F85" t="s">
-        <v>309</v>
-      </c>
-      <c r="G85" t="s">
-        <v>310</v>
-      </c>
-      <c r="H85" t="s">
-        <v>536</v>
       </c>
       <c r="I85" t="s">
         <v>19</v>
@@ -5636,36 +6229,36 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
+        <v>535</v>
+      </c>
+      <c r="L85" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" t="s">
+        <v>536</v>
+      </c>
+      <c r="B86" t="s">
         <v>537</v>
       </c>
-      <c r="L85" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="13.5">
-      <c r="A86" t="s">
+      <c r="C86" t="s">
         <v>538</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
         <v>539</v>
       </c>
-      <c r="C86" t="s">
+      <c r="E86">
+        <v>0.820083682008368</v>
+      </c>
+      <c r="F86" t="s">
         <v>540</v>
       </c>
-      <c r="D86" t="s">
+      <c r="G86" t="s">
         <v>541</v>
       </c>
-      <c r="E86">
-        <v>0.82008368200836801</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="H86" t="s">
         <v>542</v>
-      </c>
-      <c r="G86" t="s">
-        <v>543</v>
-      </c>
-      <c r="H86" t="s">
-        <v>544</v>
       </c>
       <c r="I86" t="s">
         <v>199</v>
@@ -5674,36 +6267,36 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
+        <v>543</v>
+      </c>
+      <c r="L86" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" t="s">
+        <v>544</v>
+      </c>
+      <c r="B87" t="s">
         <v>545</v>
       </c>
-      <c r="L86" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="13.5">
-      <c r="A87" t="s">
+      <c r="C87" t="s">
         <v>546</v>
       </c>
-      <c r="B87" t="s">
+      <c r="D87" t="s">
         <v>547</v>
       </c>
-      <c r="C87" t="s">
+      <c r="E87">
+        <v>0.996168582375479</v>
+      </c>
+      <c r="F87" t="s">
         <v>548</v>
       </c>
-      <c r="D87" t="s">
+      <c r="G87" t="s">
         <v>549</v>
       </c>
-      <c r="E87">
-        <v>0.99616858237547901</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="H87" t="s">
         <v>550</v>
-      </c>
-      <c r="G87" t="s">
-        <v>551</v>
-      </c>
-      <c r="H87" t="s">
-        <v>552</v>
       </c>
       <c r="I87" t="s">
         <v>28</v>
@@ -5712,33 +6305,33 @@
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="13.5">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B88" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C88" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D88" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E88">
         <v>0.99236641221374</v>
       </c>
       <c r="F88" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G88" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H88" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I88" t="s">
         <v>28</v>
@@ -5747,36 +6340,36 @@
         <v>200</v>
       </c>
       <c r="K88" t="s">
+        <v>554</v>
+      </c>
+      <c r="L88" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" t="s">
+        <v>555</v>
+      </c>
+      <c r="B89" t="s">
         <v>556</v>
       </c>
-      <c r="L88" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="13.5">
-      <c r="A89" t="s">
+      <c r="C89" t="s">
         <v>557</v>
       </c>
-      <c r="B89" t="s">
+      <c r="D89" t="s">
+        <v>556</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
         <v>558</v>
       </c>
-      <c r="C89" t="s">
+      <c r="G89" t="s">
         <v>559</v>
       </c>
-      <c r="D89" t="s">
-        <v>558</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="H89" t="s">
         <v>560</v>
-      </c>
-      <c r="G89" t="s">
-        <v>561</v>
-      </c>
-      <c r="H89" t="s">
-        <v>562</v>
       </c>
       <c r="I89" t="s">
         <v>82</v>
@@ -5788,33 +6381,33 @@
         <v>75</v>
       </c>
       <c r="L89" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="13.5">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
+        <v>561</v>
+      </c>
+      <c r="B90" t="s">
+        <v>562</v>
+      </c>
+      <c r="C90" t="s">
         <v>563</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
+        <v>562</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>558</v>
+      </c>
+      <c r="G90" t="s">
+        <v>559</v>
+      </c>
+      <c r="H90" t="s">
         <v>564</v>
-      </c>
-      <c r="C90" t="s">
-        <v>565</v>
-      </c>
-      <c r="D90" t="s">
-        <v>564</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90" t="s">
-        <v>560</v>
-      </c>
-      <c r="G90" t="s">
-        <v>561</v>
-      </c>
-      <c r="H90" t="s">
-        <v>566</v>
       </c>
       <c r="I90" t="s">
         <v>19</v>
@@ -5826,30 +6419,30 @@
         <v>75</v>
       </c>
       <c r="L90" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="13.5">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
+        <v>565</v>
+      </c>
+      <c r="B91" t="s">
+        <v>566</v>
+      </c>
+      <c r="C91" t="s">
         <v>567</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
+        <v>566</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
         <v>568</v>
       </c>
-      <c r="C91" t="s">
+      <c r="G91" t="s">
         <v>569</v>
-      </c>
-      <c r="D91" t="s">
-        <v>568</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91" t="s">
-        <v>570</v>
-      </c>
-      <c r="G91" t="s">
-        <v>571</v>
       </c>
       <c r="H91" t="s">
         <v>27</v>
@@ -5861,36 +6454,36 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
+        <v>570</v>
+      </c>
+      <c r="L91" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" t="s">
+        <v>571</v>
+      </c>
+      <c r="B92" t="s">
         <v>572</v>
       </c>
-      <c r="L91" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="13.5">
-      <c r="A92" t="s">
+      <c r="C92" t="s">
         <v>573</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>574</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92">
+        <v>0.993288590604027</v>
+      </c>
+      <c r="F92" t="s">
         <v>575</v>
       </c>
-      <c r="D92" t="s">
+      <c r="G92" t="s">
         <v>576</v>
       </c>
-      <c r="E92">
-        <v>0.99328859060402697</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="H92" t="s">
         <v>577</v>
-      </c>
-      <c r="G92" t="s">
-        <v>578</v>
-      </c>
-      <c r="H92" t="s">
-        <v>579</v>
       </c>
       <c r="I92" t="s">
         <v>19</v>
@@ -5899,24 +6492,24 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
+        <v>578</v>
+      </c>
+      <c r="L92" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" t="s">
+        <v>579</v>
+      </c>
+      <c r="B93" t="s">
         <v>580</v>
       </c>
-      <c r="L92" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="13.5">
-      <c r="A93" t="s">
+      <c r="C93" t="s">
         <v>581</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
         <v>582</v>
-      </c>
-      <c r="C93" t="s">
-        <v>583</v>
-      </c>
-      <c r="D93" t="s">
-        <v>584</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5928,7 +6521,7 @@
         <v>121</v>
       </c>
       <c r="H93" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I93" t="s">
         <v>19</v>
@@ -5940,33 +6533,33 @@
         <v>75</v>
       </c>
       <c r="L93" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="13.5">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
+        <v>584</v>
+      </c>
+      <c r="B94" t="s">
+        <v>585</v>
+      </c>
+      <c r="C94" t="s">
         <v>586</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
         <v>587</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
         <v>588</v>
       </c>
-      <c r="D94" t="s">
+      <c r="G94" t="s">
         <v>589</v>
       </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="H94" t="s">
         <v>590</v>
-      </c>
-      <c r="G94" t="s">
-        <v>591</v>
-      </c>
-      <c r="H94" t="s">
-        <v>592</v>
       </c>
       <c r="I94" t="s">
         <v>82</v>
@@ -5975,36 +6568,36 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
+        <v>591</v>
+      </c>
+      <c r="L94" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" t="s">
+        <v>592</v>
+      </c>
+      <c r="B95" t="s">
         <v>593</v>
       </c>
-      <c r="L94" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="13.5">
-      <c r="A95" t="s">
+      <c r="C95" t="s">
         <v>594</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D95" t="s">
         <v>595</v>
       </c>
-      <c r="C95" t="s">
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
         <v>596</v>
       </c>
-      <c r="D95" t="s">
+      <c r="G95" t="s">
         <v>597</v>
       </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="H95" t="s">
         <v>598</v>
-      </c>
-      <c r="G95" t="s">
-        <v>599</v>
-      </c>
-      <c r="H95" t="s">
-        <v>600</v>
       </c>
       <c r="I95" t="s">
         <v>174</v>
@@ -6016,36 +6609,36 @@
         <v>75</v>
       </c>
       <c r="L95" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="13.5">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
+        <v>599</v>
+      </c>
+      <c r="B96" t="s">
+        <v>600</v>
+      </c>
+      <c r="C96" t="s">
         <v>601</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D96" t="s">
         <v>602</v>
       </c>
-      <c r="C96" t="s">
+      <c r="E96">
+        <v>0.992700729927007</v>
+      </c>
+      <c r="F96" t="s">
         <v>603</v>
       </c>
-      <c r="D96" t="s">
+      <c r="G96" t="s">
         <v>604</v>
       </c>
-      <c r="E96">
-        <v>0.99270072992700698</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="H96" t="s">
         <v>605</v>
       </c>
-      <c r="G96" t="s">
+      <c r="I96" t="s">
         <v>606</v>
-      </c>
-      <c r="H96" t="s">
-        <v>607</v>
-      </c>
-      <c r="I96" t="s">
-        <v>608</v>
       </c>
       <c r="J96" t="b">
         <v>0</v>
@@ -6054,33 +6647,33 @@
         <v>75</v>
       </c>
       <c r="L96" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="13.5">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
+        <v>607</v>
+      </c>
+      <c r="B97" t="s">
+        <v>608</v>
+      </c>
+      <c r="C97" t="s">
         <v>609</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D97" t="s">
         <v>610</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
         <v>611</v>
       </c>
-      <c r="D97" t="s">
+      <c r="G97" t="s">
         <v>612</v>
       </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="H97" t="s">
         <v>613</v>
-      </c>
-      <c r="G97" t="s">
-        <v>614</v>
-      </c>
-      <c r="H97" t="s">
-        <v>615</v>
       </c>
       <c r="I97" t="s">
         <v>19</v>
@@ -6092,71 +6685,71 @@
         <v>75</v>
       </c>
       <c r="L97" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="13.5">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
+        <v>614</v>
+      </c>
+      <c r="B98" t="s">
+        <v>615</v>
+      </c>
+      <c r="C98" t="s">
         <v>616</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D98" t="s">
         <v>617</v>
       </c>
-      <c r="C98" t="s">
+      <c r="E98">
+        <v>0.994764397905759</v>
+      </c>
+      <c r="F98" t="s">
         <v>618</v>
       </c>
-      <c r="D98" t="s">
+      <c r="G98" t="s">
         <v>619</v>
       </c>
-      <c r="E98">
-        <v>0.99476439790575899</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="H98" t="s">
         <v>620</v>
-      </c>
-      <c r="G98" t="s">
-        <v>621</v>
-      </c>
-      <c r="H98" t="s">
-        <v>622</v>
       </c>
       <c r="I98" t="s">
         <v>199</v>
       </c>
       <c r="J98" t="s">
+        <v>621</v>
+      </c>
+      <c r="K98" t="s">
+        <v>622</v>
+      </c>
+      <c r="L98" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" t="s">
         <v>623</v>
       </c>
-      <c r="K98" t="s">
+      <c r="B99" t="s">
         <v>624</v>
       </c>
-      <c r="L98" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="13.5">
-      <c r="A99" t="s">
+      <c r="C99" t="s">
         <v>625</v>
       </c>
-      <c r="B99" t="s">
+      <c r="D99" t="s">
+        <v>624</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
         <v>626</v>
       </c>
-      <c r="C99" t="s">
+      <c r="G99" t="s">
         <v>627</v>
       </c>
-      <c r="D99" t="s">
-        <v>626</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="H99" t="s">
         <v>628</v>
-      </c>
-      <c r="G99" t="s">
-        <v>629</v>
-      </c>
-      <c r="H99" t="s">
-        <v>630</v>
       </c>
       <c r="I99" t="s">
         <v>19</v>
@@ -6168,33 +6761,33 @@
         <v>75</v>
       </c>
       <c r="L99" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="13.5">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
+        <v>629</v>
+      </c>
+      <c r="B100" t="s">
+        <v>630</v>
+      </c>
+      <c r="C100" t="s">
         <v>631</v>
       </c>
-      <c r="B100" t="s">
+      <c r="D100" t="s">
+        <v>630</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
         <v>632</v>
       </c>
-      <c r="C100" t="s">
+      <c r="G100" t="s">
         <v>633</v>
       </c>
-      <c r="D100" t="s">
-        <v>632</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="H100" t="s">
         <v>634</v>
-      </c>
-      <c r="G100" t="s">
-        <v>635</v>
-      </c>
-      <c r="H100" t="s">
-        <v>636</v>
       </c>
       <c r="I100" t="s">
         <v>95</v>
@@ -6203,74 +6796,74 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="L100" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="15">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B101" t="s">
+        <v>630</v>
+      </c>
+      <c r="C101" t="s">
+        <v>631</v>
+      </c>
+      <c r="D101" t="s">
+        <v>630</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
         <v>632</v>
       </c>
-      <c r="C101" t="s">
+      <c r="G101" t="s">
         <v>633</v>
       </c>
-      <c r="D101" t="s">
-        <v>632</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="H101" t="s">
         <v>634</v>
-      </c>
-      <c r="G101" t="s">
-        <v>635</v>
-      </c>
-      <c r="H101" t="s">
-        <v>636</v>
       </c>
       <c r="I101" t="s">
         <v>95</v>
       </c>
       <c r="J101" t="s">
+        <v>637</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="L101" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" t="s">
         <v>639</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="B102" t="s">
         <v>640</v>
       </c>
-      <c r="L101" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="13.5">
-      <c r="A102" t="s">
+      <c r="C102" t="s">
         <v>641</v>
       </c>
-      <c r="B102" t="s">
+      <c r="D102" t="s">
         <v>642</v>
       </c>
-      <c r="C102" t="s">
+      <c r="E102">
+        <v>0.995433789954338</v>
+      </c>
+      <c r="F102" t="s">
         <v>643</v>
       </c>
-      <c r="D102" t="s">
+      <c r="G102" t="s">
         <v>644</v>
       </c>
-      <c r="E102">
-        <v>0.99543378995433796</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="H102" t="s">
         <v>645</v>
-      </c>
-      <c r="G102" t="s">
-        <v>646</v>
-      </c>
-      <c r="H102" t="s">
-        <v>647</v>
       </c>
       <c r="I102" t="s">
         <v>199</v>
@@ -6279,49 +6872,52 @@
         <v>1</v>
       </c>
       <c r="K102" t="s">
+        <v>646</v>
+      </c>
+      <c r="L102" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" t="s">
+        <v>647</v>
+      </c>
+      <c r="B103" t="s">
         <v>648</v>
       </c>
-      <c r="L102" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="13.5">
-      <c r="A103" t="s">
+      <c r="C103" t="s">
         <v>649</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" t="s">
+        <v>648</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
         <v>650</v>
       </c>
-      <c r="C103" t="s">
+      <c r="G103" t="s">
         <v>651</v>
-      </c>
-      <c r="D103" t="s">
-        <v>650</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="F103" t="s">
-        <v>652</v>
-      </c>
-      <c r="G103" t="s">
-        <v>653</v>
       </c>
       <c r="H103" t="s">
         <v>27</v>
       </c>
       <c r="J103" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="K103" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L103" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="L1:L103">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>